--- a/doc/開發指南.xlsx
+++ b/doc/開發指南.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\user\projects\虛幻之災\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\UnrealDisaster\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEAEE52B-C10E-4146-A7C0-4B9C93CF1050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4691BA-5F46-4608-B70C-DE442DFAD876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{F3A9FCAF-7E5B-4A70-B34A-D21BA3BABD35}"/>
+    <workbookView xWindow="7380" yWindow="2760" windowWidth="28800" windowHeight="15885" activeTab="1" xr2:uid="{F3A9FCAF-7E5B-4A70-B34A-D21BA3BABD35}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="2" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="1" r:id="rId2"/>
+    <sheet name="業務流程圖" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -165,375 +165,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形: 圓角 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A47381A-642E-80B2-380B-2C56839AD367}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11087100" y="485775"/>
-          <a:ext cx="1419225" cy="447675"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>事件觸發</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FDD214A-8527-E552-69A9-1A17B1BDAF3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11125200" y="1685925"/>
-          <a:ext cx="1352550" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>取得觸發者</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="矩形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3268F1D0-91DD-2425-2736-A54D90AF494A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11115675" y="2809875"/>
-          <a:ext cx="1352550" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>呼叫觸發者的回調函數</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF0AD1C1-975F-AF11-10C0-067512E69AB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12982575" y="1695450"/>
-          <a:ext cx="1352550" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>取得觸發事件名稱</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>138113</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線單箭頭接點 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5264F671-BB16-6DFE-C338-F824620BE026}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11796713" y="933450"/>
-          <a:ext cx="4762" cy="752475"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>138112</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="接點: 肘形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{724C64B5-AE16-2EC0-B1A3-8E09F9486DDF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="5" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="12346781" y="383381"/>
-          <a:ext cx="762000" cy="1862137"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -835,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80794308-9453-48E5-BEEE-D96E3A4E9632}">
   <dimension ref="M13:M21"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -892,14 +523,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA30CDF5-8453-417E-90C2-9C90B3D9F48B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/開發指南.xlsx
+++ b/doc/開發指南.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\UnrealDisaster\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4691BA-5F46-4608-B70C-DE442DFAD876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF31489E-2F6F-4EA5-9367-0FA0D8BF706D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="2760" windowWidth="28800" windowHeight="15885" activeTab="1" xr2:uid="{F3A9FCAF-7E5B-4A70-B34A-D21BA3BABD35}"/>
+    <workbookView xWindow="4170" yWindow="3930" windowWidth="28800" windowHeight="15885" xr2:uid="{F3A9FCAF-7E5B-4A70-B34A-D21BA3BABD35}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="2" r:id="rId1"/>
-    <sheet name="業務流程圖" sheetId="1" r:id="rId2"/>
+    <sheet name="行為樹-功能流程圖" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>歡迎查閱開發指南</t>
   </si>
@@ -58,6 +58,10 @@
   </si>
   <si>
     <t>本指南提供「虛幻之災」專案的各類流程圖，包含 UI 的設計邏輯、遊戲內容設計以及功能流程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關聯圖：以 UML 表達類別彼此的繼承、組合關係</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,6 +169,1397 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形: 圓角 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C298056B-82F1-49AA-D385-20D3BBD72FD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267701" y="266700"/>
+          <a:ext cx="1162050" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>載入行為樹</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D46F25-F096-FA4B-7930-AC923EFF029F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305800" y="4229100"/>
+          <a:ext cx="1095375" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>載入腳本</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{443374B6-9F1B-43C9-B186-6FA629320728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8334375" y="8543925"/>
+          <a:ext cx="1114425" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>執行行為樹</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形: 圓角 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DDFF8A4-72C1-E427-4487-8787C3C5C77F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8153400" y="9467850"/>
+          <a:ext cx="1466850" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>執行完畢</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3397B26C-7BD0-6F89-C706-952F9B6452F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305800" y="3295650"/>
+          <a:ext cx="1095375" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>讀取參數</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線單箭頭接點 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B43F4F2-25F6-A317-1AA9-BEEB84D53FB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="66" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848726" y="828675"/>
+          <a:ext cx="4762" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線單箭頭接點 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{990C81FC-A6C1-0DD3-EB6B-DBF9591C81E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8853488" y="3800475"/>
+          <a:ext cx="0" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線單箭頭接點 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF0B7EC-D597-81ED-C4C4-DAECB9D900D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="39" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8853488" y="4733925"/>
+          <a:ext cx="14288" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>661988</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>661988</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線單箭頭接點 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C11CCF2-A58C-9941-8880-AF678EE97722}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8891588" y="8039099"/>
+          <a:ext cx="0" cy="504826"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>661988</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線單箭頭接點 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38C4ECB1-936C-F38E-9621-0D895F40A3BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8886825" y="9010650"/>
+          <a:ext cx="4763" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="矩形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC28747B-E1F2-6CDC-958A-7CEBBB72432F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8258176" y="5162550"/>
+          <a:ext cx="1219200" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>讀取行為樹模板</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矩形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{669E145C-ECDB-BABE-EFB9-F1DFA679E410}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191501" y="6200774"/>
+          <a:ext cx="1381124" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>根據腳本的節點名稱找出對應的模板</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="矩形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EB4524-A554-22DE-2C46-DC86EFD9E603}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8201026" y="7343774"/>
+          <a:ext cx="1381124" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>組合模板為行為樹架構</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>652463</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線單箭頭接點 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A02AD563-BA0D-212D-A2D3-585017F0A750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="2"/>
+          <a:endCxn id="40" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8867776" y="5753100"/>
+          <a:ext cx="14287" cy="447674"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>652463</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>661988</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線單箭頭接點 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306F9D42-C18A-8DDE-3A7F-547E04EB1267}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="2"/>
+          <a:endCxn id="42" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8882063" y="6896099"/>
+          <a:ext cx="9525" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="矩形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C32F1A93-F689-7369-8649-7A7A67617091}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305800" y="1266825"/>
+          <a:ext cx="1095375" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>預載模板</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="菱形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CBBCC70-BC34-DACD-1481-E382C67ED000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810499" y="2124075"/>
+          <a:ext cx="2085975" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>有無外部調用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>?</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線單箭頭接點 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA19ACA-3254-DD8E-C050-D9B2B583415F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8853487" y="3019425"/>
+          <a:ext cx="1" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>623888</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直線單箭頭接點 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28581626-EA6F-715A-1609-17FF5AB51496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="2"/>
+          <a:endCxn id="71" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8853487" y="1771650"/>
+          <a:ext cx="1" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="272126" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="文字方塊 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56483060-C522-4B3A-9E8B-EFA2C5CFBD59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8858250" y="2933700"/>
+          <a:ext cx="272126" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+            <a:t>Y</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="接點: 肘形 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A21620-7FEB-03AF-94A5-E00261644495}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="3"/>
+          <a:endCxn id="71" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8853487" y="2124075"/>
+          <a:ext cx="1042987" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -21918"/>
+            <a:gd name="adj2" fmla="val 151064"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="接點: 肘形 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{288CFD83-74CB-64DC-3252-F9F7307AFDC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="71" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8853487" y="2124075"/>
+          <a:ext cx="766763" cy="7672388"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -65838"/>
+            <a:gd name="adj2" fmla="val 102980"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="文字方塊 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E9CA3D-E53D-0E07-4891-ADC8F739362A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9839325" y="2647950"/>
+          <a:ext cx="228600" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+            <a:t>F</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,10 +1859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80794308-9453-48E5-BEEE-D96E3A4E9632}">
-  <dimension ref="M13:M21"/>
+  <dimension ref="M13:M22"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -512,6 +1907,11 @@
         <v>6</v>
       </c>
     </row>
+    <row r="22" spans="13:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="M22" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -523,13 +1923,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA30CDF5-8453-417E-90C2-9C90B3D9F48B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/開發指南.xlsx
+++ b/doc/開發指南.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\UnrealDisaster\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Unreal-Disaster\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF31489E-2F6F-4EA5-9367-0FA0D8BF706D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72A639F-6CB4-4BFD-A761-1CEB6723FE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="3930" windowWidth="28800" windowHeight="15885" xr2:uid="{F3A9FCAF-7E5B-4A70-B34A-D21BA3BABD35}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{F3A9FCAF-7E5B-4A70-B34A-D21BA3BABD35}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="2" r:id="rId1"/>
     <sheet name="行為樹-功能流程圖" sheetId="1" r:id="rId2"/>
+    <sheet name="技能-功能流程圖" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -175,331 +176,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>280986</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形: 圓角 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C298056B-82F1-49AA-D385-20D3BBD72FD2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8267701" y="266700"/>
-          <a:ext cx="1162050" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>載入行為樹</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D46F25-F096-FA4B-7930-AC923EFF029F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8305800" y="4229100"/>
-          <a:ext cx="1095375" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>載入腳本</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{443374B6-9F1B-43C9-B186-6FA629320728}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8334375" y="8543925"/>
-          <a:ext cx="1114425" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>執行行為樹</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="矩形: 圓角 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DDFF8A4-72C1-E427-4487-8787C3C5C77F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8153400" y="9467850"/>
-          <a:ext cx="1466850" cy="657225"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>執行完畢</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="矩形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3397B26C-7BD0-6F89-C706-952F9B6452F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8305800" y="3295650"/>
-          <a:ext cx="1095375" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>讀取參數</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>623888</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -517,8 +203,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8848726" y="828675"/>
-          <a:ext cx="4762" cy="438150"/>
+          <a:off x="6986586" y="718185"/>
+          <a:ext cx="1" cy="412115"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -546,16 +232,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>623888</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>623888</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>122555</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -573,8 +259,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8853488" y="3800475"/>
-          <a:ext cx="0" cy="428625"/>
+          <a:off x="6986587" y="3825240"/>
+          <a:ext cx="0" cy="412115"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -602,16 +288,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>623888</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279795</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>638176</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -628,9 +314,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8853488" y="4733925"/>
-          <a:ext cx="14288" cy="428625"/>
+        <a:xfrm flipH="1">
+          <a:off x="6985395" y="4734560"/>
+          <a:ext cx="1192" cy="412115"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -658,16 +344,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>661988</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279795</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>99695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>661988</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279796</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>100330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -685,8 +371,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8891588" y="8039099"/>
-          <a:ext cx="0" cy="504826"/>
+          <a:off x="6985395" y="7917815"/>
+          <a:ext cx="1" cy="412115"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -714,16 +400,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279796</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>144145</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>661988</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279796</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144781</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -740,9 +426,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8886825" y="9010650"/>
-          <a:ext cx="4763" cy="457200"/>
+        <a:xfrm>
+          <a:off x="6985396" y="8785225"/>
+          <a:ext cx="0" cy="412116"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -770,205 +456,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279795</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="矩形 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC28747B-E1F2-6CDC-958A-7CEBBB72432F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8258176" y="5162550"/>
-          <a:ext cx="1219200" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>讀取行為樹模板</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>647701</xdr:colOff>
+      <xdr:colOff>279795</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="矩形 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{669E145C-ECDB-BABE-EFB9-F1DFA679E410}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8191501" y="6200774"/>
-          <a:ext cx="1381124" cy="695325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>根據腳本的節點名稱找出對應的模板</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="矩形 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EB4524-A554-22DE-2C46-DC86EFD9E603}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8201026" y="7343774"/>
-          <a:ext cx="1381124" cy="695325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>組合模板為行為樹架構</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>638176</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>652463</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -986,8 +483,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8867776" y="5753100"/>
-          <a:ext cx="14287" cy="447674"/>
+          <a:off x="6985395" y="5725795"/>
+          <a:ext cx="0" cy="412115"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1015,16 +512,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>652463</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279795</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>661988</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279795</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>33020</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1042,8 +539,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8882063" y="6896099"/>
-          <a:ext cx="9525" cy="447675"/>
+          <a:off x="6985395" y="6821805"/>
+          <a:ext cx="0" cy="412115"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1071,146 +568,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="矩形 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C32F1A93-F689-7369-8649-7A7A67617091}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8305800" y="1266825"/>
-          <a:ext cx="1095375" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>預載模板</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="菱形 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CBBCC70-BC34-DACD-1481-E382C67ED000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7810499" y="2124075"/>
-          <a:ext cx="2085975" cy="895350"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
-            <a:t>有無外部調用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
-            <a:t>?</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>623887</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>623888</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1228,8 +595,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8853487" y="3019425"/>
-          <a:ext cx="1" cy="276225"/>
+          <a:off x="6986587" y="3009900"/>
+          <a:ext cx="0" cy="321945"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1257,16 +624,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>623887</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>623888</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>187960</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1283,9 +650,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8853487" y="1771650"/>
-          <a:ext cx="1" cy="352425"/>
+        <a:xfrm>
+          <a:off x="6986587" y="1627505"/>
+          <a:ext cx="0" cy="412115"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1311,77 +678,18 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="272126" cy="311496"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="文字方塊 103">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56483060-C522-4B3A-9E8B-EFA2C5CFBD59}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8858250" y="2933700"/>
-          <a:ext cx="272126" cy="311496"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
-            <a:t>Y</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>623887</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>187960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>55880</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1399,13 +707,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8853487" y="2124075"/>
-          <a:ext cx="1042987" cy="447675"/>
+          <a:off x="6986587" y="2039620"/>
+          <a:ext cx="928687" cy="485140"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -21918"/>
-            <a:gd name="adj2" fmla="val 151064"/>
+            <a:gd name="adj1" fmla="val -24615"/>
+            <a:gd name="adj2" fmla="val 147120"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1431,16 +739,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>623887</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>187960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>155495</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>80011</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1458,13 +766,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="8853487" y="2124075"/>
-          <a:ext cx="766763" cy="7672388"/>
+          <a:off x="6986587" y="2039620"/>
+          <a:ext cx="484108" cy="7298691"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -65838"/>
-            <a:gd name="adj2" fmla="val 102980"/>
+            <a:gd name="adj1" fmla="val -139056"/>
+            <a:gd name="adj2" fmla="val 103132"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1490,45 +798,3189 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>207645</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="文字方塊 106">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="群組 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E9CA3D-E53D-0E07-4891-ADC8F739362A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{438DF81E-5D2D-0614-5611-73873CC5B1C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6057899" y="163830"/>
+          <a:ext cx="2074546" cy="9315451"/>
+          <a:chOff x="6972299" y="262890"/>
+          <a:chExt cx="2074546" cy="9315451"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="矩形: 圓角 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C298056B-82F1-49AA-D385-20D3BBD72FD2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7358061" y="262890"/>
+            <a:ext cx="1085850" cy="554355"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>載入行為樹</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="矩形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D46F25-F096-FA4B-7930-AC923EFF029F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7391399" y="4336415"/>
+            <a:ext cx="1019175" cy="497205"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>載入腳本</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="矩形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{443374B6-9F1B-43C9-B186-6FA629320728}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7380683" y="8428990"/>
+            <a:ext cx="1038225" cy="455295"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>執行行為樹</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="矩形: 圓角 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DDFF8A4-72C1-E427-4487-8787C3C5C77F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7414496" y="9296401"/>
+            <a:ext cx="970599" cy="281940"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>執行完畢</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="矩形 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3397B26C-7BD0-6F89-C706-952F9B6452F7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7391399" y="3430905"/>
+            <a:ext cx="1019175" cy="493395"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>讀取參數</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="矩形 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC28747B-E1F2-6CDC-958A-7CEBBB72432F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7328295" y="5245735"/>
+            <a:ext cx="1143000" cy="579120"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>讀取行為樹模板</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="矩形 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{669E145C-ECDB-BABE-EFB9-F1DFA679E410}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7289243" y="6236970"/>
+            <a:ext cx="1221104" cy="683895"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>根據腳本的節點名稱找出對應的模板</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="矩形 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EB4524-A554-22DE-2C46-DC86EFD9E603}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7293053" y="7332980"/>
+            <a:ext cx="1213484" cy="683895"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>組合模板為行為樹架構</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="矩形 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C32F1A93-F689-7369-8649-7A7A67617091}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7391399" y="1229360"/>
+            <a:ext cx="1019175" cy="497205"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>預載模板</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="71" name="菱形 70">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CBBCC70-BC34-DACD-1481-E382C67ED000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6972299" y="2138680"/>
+            <a:ext cx="1857375" cy="970280"/>
+          </a:xfrm>
+          <a:prstGeom prst="diamond">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>有無外部調用</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+              <a:t>?</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="104" name="文字方塊 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56483060-C522-4B3A-9E8B-EFA2C5CFBD59}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7913370" y="3086100"/>
+            <a:ext cx="272126" cy="311496"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+              <a:t>Y</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="107" name="文字方塊 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E9CA3D-E53D-0E07-4891-ADC8F739362A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8818245" y="2312670"/>
+            <a:ext cx="228600" cy="306705"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+              <a:t>F</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>78105</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="162" name="群組 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8C859F-B70D-814F-05D4-E1A305561120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2042160" y="276225"/>
+          <a:ext cx="1295400" cy="5974080"/>
+          <a:chOff x="2042160" y="281940"/>
+          <a:chExt cx="1295400" cy="5974080"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="矩形: 圓角 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9666240B-557E-7BC6-AA01-D1980BABF929}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2057400" y="281940"/>
+            <a:ext cx="1264920" cy="480060"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>載入技能系統</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="矩形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8A42CB-7F46-15FB-73A4-599F5A66494C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2080260" y="1207770"/>
+            <a:ext cx="1219200" cy="411480"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>讀取技能腳本</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="矩形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{443C689F-1CCC-49E1-9C06-18562DA21808}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2137410" y="3036570"/>
+            <a:ext cx="1104900" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>解析技能腳本</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="矩形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB571714-D933-F540-0C7C-3F376F4F8012}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2080260" y="2065020"/>
+            <a:ext cx="1219200" cy="525780"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>以技能名稱為索引讀取技能數據</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="矩形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9823A8D4-C63B-867F-3C6F-FDA9103DFFBD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2042160" y="4827270"/>
+            <a:ext cx="1295400" cy="502920"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>以技能</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>為索引儲存技能樹</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="矩形: 圓角 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A80C44-CBA8-850B-43EE-8C92DC582C12}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2057400" y="5775960"/>
+            <a:ext cx="1264920" cy="480060"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>載入完畢</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="矩形 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43509AD-FBED-A299-CCB2-C25C181F173D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2133600" y="3939540"/>
+            <a:ext cx="1112520" cy="441960"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>轉換成技能樹</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線單箭頭接點 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12907104-D7F3-A8EB-3C7D-5D69C9B35EB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9839325" y="2647950"/>
-          <a:ext cx="228600" cy="314325"/>
+          <a:off x="2689860" y="756285"/>
+          <a:ext cx="0" cy="445770"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線單箭頭接點 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EAD4D8E-42A9-6169-14DA-FEF6F48486FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2689860" y="1613535"/>
+          <a:ext cx="0" cy="445770"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線單箭頭接點 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133F381E-4CD3-7F0C-0525-A3EB5E3D6FCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2689860" y="2585085"/>
+          <a:ext cx="0" cy="445770"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>196215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線單箭頭接點 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85F0B33F-C304-7539-15F2-2B6CB48F6E37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2689860" y="3488055"/>
+          <a:ext cx="0" cy="445770"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線單箭頭接點 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D41402-F6FF-735D-69AD-3071B9909B38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2689860" y="4375785"/>
+          <a:ext cx="0" cy="445770"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線單箭頭接點 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D91402-4FE3-ACFB-D3FE-7AD708807D68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2689860" y="5324475"/>
+          <a:ext cx="0" cy="445770"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>225035</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>225035</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線單箭頭接點 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21093889-8038-F10F-D6AB-49094DDEA63C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+          <a:endCxn id="40" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5711435" y="756285"/>
+          <a:ext cx="0" cy="440690"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>225035</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>145415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>225035</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線單箭頭接點 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0537C7BC-DBB7-FDE4-73DE-56AC4AE0FCFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="2"/>
+          <a:endCxn id="47" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5711435" y="2202815"/>
+          <a:ext cx="0" cy="440690"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>225035</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>225035</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直線單箭頭接點 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FDBAB91-E810-2CF5-D254-BC00ED0BCAF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="2"/>
+          <a:endCxn id="44" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5711435" y="3169285"/>
+          <a:ext cx="0" cy="440690"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>225035</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>225035</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50165</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直線單箭頭接點 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F5CE75F-BF7A-64E9-B669-1B28832AC82E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="2"/>
+          <a:endCxn id="45" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5711435" y="4135755"/>
+          <a:ext cx="0" cy="440690"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>225035</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>164465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>225035</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>193675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直線單箭頭接點 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B899FE-E195-AC4B-48A0-FD6BAFB895A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="2"/>
+          <a:endCxn id="46" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5711435" y="5102225"/>
+          <a:ext cx="0" cy="440690"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>225035</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>102235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>225035</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線單箭頭接點 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E2EDF0-02B8-6287-D001-D36AC77F1A85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="2"/>
+          <a:endCxn id="51" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5711435" y="6068695"/>
+          <a:ext cx="0" cy="440690"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>499355</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>240275</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="163" name="群組 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7833F36E-18A7-3901-C080-4A3A52E4491E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4766555" y="276225"/>
+          <a:ext cx="3398520" cy="6713220"/>
+          <a:chOff x="5135880" y="276225"/>
+          <a:chExt cx="3398520" cy="6713220"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="矩形: 圓角 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F721DE82-5F65-1158-2233-56B421CA11CF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5360670" y="276225"/>
+            <a:ext cx="1440180" cy="480060"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
               <a:shade val="50000"/>
             </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>玩家鑲嵌技能符文</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="40" name="菱形 39">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F86C68B4-716D-928D-05B0-98B6A6AFC08A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5135880" y="1196975"/>
+            <a:ext cx="1889760" cy="1005840"/>
+          </a:xfrm>
+          <a:prstGeom prst="diamond">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>搜尋角色有無此技能</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="zh-TW">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="矩形 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C47B96-E7AF-6650-E0D0-C8B21FF38229}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5471160" y="3609975"/>
+            <a:ext cx="1219200" cy="525780"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>技能讀取符文數據</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="矩形 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD0B234-2699-B08F-34C5-8D06202A5F0C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5471160" y="4576445"/>
+            <a:ext cx="1219200" cy="525780"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>根據符文提供的 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+              <a:t>ID </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>找到節點位置</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="矩形 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC83DAD-566C-48A9-D64E-842FC3319F8D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5471160" y="5542915"/>
+            <a:ext cx="1219200" cy="525780"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>把裝飾函數加進節點</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="矩形 46">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6186A5AD-C9E3-A032-CF3C-245C5401976D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5471160" y="2643505"/>
+            <a:ext cx="1219200" cy="525780"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>技能記錄「擁有符文」</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="矩形: 圓角 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6620D865-B698-D59E-CCC3-969143CC8FFE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5360670" y="6509385"/>
+            <a:ext cx="1440180" cy="480060"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>鑲嵌完畢</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="82" name="文字方塊 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A27A4AAB-AE20-3AC1-AE2F-76768F87FD8E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6111240" y="2225040"/>
+            <a:ext cx="272126" cy="311496"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+              <a:t>Y</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="83" name="文字方塊 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A71D327-CCE1-8F6C-960E-521F618A4366}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7200900" y="1379220"/>
+            <a:ext cx="289560" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
           </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
+              <a:t>N</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="矩形: 圓角 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18D0BFA-204E-D492-C1B3-32C8A37C1D5F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7734300" y="1459865"/>
+            <a:ext cx="800100" cy="480060"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>結束</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>560315</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>49775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直線單箭頭接點 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72DA4864-3728-FA90-35D5-A4B89E7574FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="3"/>
+          <a:endCxn id="85" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6656315" y="1699895"/>
+          <a:ext cx="708660" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488552</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488552</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176076</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直線單箭頭接點 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E4AA22-0155-E564-2F77-0B87C2B45A3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="2"/>
+          <a:endCxn id="97" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10242152" y="756285"/>
+          <a:ext cx="0" cy="448491"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488552</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>84636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488552</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="直線單箭頭接點 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360F4217-BE8E-A868-1671-17DA164797D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="97" idx="2"/>
+          <a:endCxn id="98" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10242152" y="1730556"/>
+          <a:ext cx="0" cy="448491"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488552</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488552</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>67218</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="直線單箭頭接點 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{060D8650-6213-068E-CF00-A2918A669CFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="98" idx="2"/>
+          <a:endCxn id="94" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10242152" y="2704827"/>
+          <a:ext cx="0" cy="448491"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488552</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>181518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488552</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>18636</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="直線單箭頭接點 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC1509C9-850E-FFEE-BBB1-B6175541A7E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="94" idx="2"/>
+          <a:endCxn id="95" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10242152" y="3679098"/>
+          <a:ext cx="0" cy="454338"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488552</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>11016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488552</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42180</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="直線單箭頭接點 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE630D58-1887-21E2-5F62-5B26D500D80E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="95" idx="2"/>
+          <a:endCxn id="96" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10242152" y="4537296"/>
+          <a:ext cx="0" cy="442644"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488552</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>141240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488552</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>178251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="直線單箭頭接點 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A17DA53-5F22-9BD1-C416-797F7B4DC9A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="96" idx="2"/>
+          <a:endCxn id="99" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10242152" y="5490480"/>
+          <a:ext cx="0" cy="448491"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488552</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>170631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488552</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="直線單箭頭接點 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D63D50C8-AB27-F5B1-5519-2E3C677E8777}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="99" idx="2"/>
+          <a:endCxn id="102" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10242152" y="6342831"/>
+          <a:ext cx="0" cy="448494"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>450071</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>164907</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="169" name="群組 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D0F5829-8E7F-C994-E5E5-9BE3A4ABA863}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9594071" y="276225"/>
+          <a:ext cx="3763789" cy="6883842"/>
+          <a:chOff x="9594071" y="276225"/>
+          <a:chExt cx="3763789" cy="6883842"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="矩形: 圓角 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B722CE1B-A607-9CBB-3802-F62CA7C5D5DB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9678272" y="276225"/>
+            <a:ext cx="1127760" cy="480060"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>玩家使用技能</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="矩形 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{984EA22C-8684-550C-3223-A5694513ED6C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9632552" y="3153318"/>
+            <a:ext cx="1219200" cy="525780"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>前往技能系統讀取技能樹</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="矩形 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5710C1-6BE8-2A20-1153-CDB0F95A3968}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9693512" y="4133436"/>
+            <a:ext cx="1097280" cy="403860"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>創建實例</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="96" name="矩形 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F95E222-0869-C4BB-E1E5-24F6729D5318}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9693512" y="4979940"/>
+            <a:ext cx="1097280" cy="510540"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>匯入裝飾器到技能樹</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="97" name="矩形 96">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5687C29-F77B-68BF-104D-21BF091EA1CE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9632552" y="1204776"/>
+            <a:ext cx="1219200" cy="525780"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>啟動技能管理器</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="矩形 97">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8341E455-416C-C053-B1F7-FEF6CD2E0042}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9632552" y="2179047"/>
+            <a:ext cx="1219200" cy="525780"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>設置技能數據</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="99" name="矩形 98">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A14ECEE5-F832-4EFE-E725-F1506324962B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9693512" y="5938971"/>
+            <a:ext cx="1097280" cy="403860"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>執行技能樹</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="102" name="矩形: 圓角 101">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5360FF5-B128-BA4D-C84A-BB1A520F2758}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9594071" y="6791325"/>
+            <a:ext cx="1296162" cy="368742"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>銷毀實例</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="165" name="文字方塊 164">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54284340-50B2-B473-FC9B-323E64376F8E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11407140" y="3805776"/>
+            <a:ext cx="1950720" cy="1059180"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+              <a:t>不複用實例是因為每次調用裝飾函數都會更改節點。如果連續使用，會導致數據堆疊的問題。</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>427592</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>14826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>14826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="167" name="直線接點 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E436DAF5-D1B1-25E0-D537-0EA6F47411D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="165" idx="1"/>
+          <a:endCxn id="95" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10790792" y="4335366"/>
+          <a:ext cx="616348" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1542,21 +3994,10 @@
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-TW" sz="1400"/>
-            <a:t>F</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1861,53 +4302,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80794308-9453-48E5-BEEE-D96E3A4E9632}">
   <dimension ref="M13:M22"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="I6" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="13" spans="13:13" ht="50.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="13:13" ht="49.8" x14ac:dyDescent="0.3">
       <c r="M13" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="13:13" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="13:13" ht="24.6" x14ac:dyDescent="0.3">
       <c r="M14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="13:13" ht="32.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="13:13" ht="33" x14ac:dyDescent="0.3">
       <c r="M16" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="13:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="13:13" ht="22.2" x14ac:dyDescent="0.3">
       <c r="M17" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="13:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="13:13" ht="22.2" x14ac:dyDescent="0.3">
       <c r="M18" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="13:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="13:13" ht="22.2" x14ac:dyDescent="0.3">
       <c r="M19" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="13:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="13:13" ht="22.2" x14ac:dyDescent="0.3">
       <c r="M20" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="13:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="13:13" ht="22.2" x14ac:dyDescent="0.3">
       <c r="M21" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="13:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="13:13" ht="22.2" x14ac:dyDescent="0.3">
       <c r="M22" s="4" t="s">
         <v>8</v>
       </c>
@@ -1924,10 +4365,26 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10013F7E-AACB-4050-9C0C-072F871E3C2B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
